--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339CC4C5-DA54-45DB-ACA3-EB5D26C24ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798E524-BA23-498C-93AC-233B22E39419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3798E524-BA23-498C-93AC-233B22E39419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E551B-A56E-4EB2-BF46-3315CAED16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E551B-A56E-4EB2-BF46-3315CAED16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F5007-228B-41FE-A802-86EC8A1DD8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06F5007-228B-41FE-A802-86EC8A1DD8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB111D25-6CC3-4785-8FED-4A0BD824E3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB111D25-6CC3-4785-8FED-4A0BD824E3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8ED0A-1989-4508-939E-232D25C9D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8ED0A-1989-4508-939E-232D25C9D5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8EB56-009A-4A0D-817B-DDA5CB30A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E8EB56-009A-4A0D-817B-DDA5CB30A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E0FDD-FC4D-4862-8427-B5C3B0783908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E0FDD-FC4D-4862-8427-B5C3B0783908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870763DD-2794-4A58-ABA1-BEF9B18688F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870763DD-2794-4A58-ABA1-BEF9B18688F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2648F7-51FA-4992-9818-D7FA78C6FD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2648F7-51FA-4992-9818-D7FA78C6FD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C69078-8A0C-43AC-909F-9B976B1E7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C69078-8A0C-43AC-909F-9B976B1E7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170248F6-4934-42E9-9D35-3A51211D7850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170248F6-4934-42E9-9D35-3A51211D7850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737AFE-0A78-41C8-A1F0-57D95FD41779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF737AFE-0A78-41C8-A1F0-57D95FD41779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3241F7-F289-42B8-A024-D5B6276F663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_ISL/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ISL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3241F7-F289-42B8-A024-D5B6276F663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7A12EF-9F9B-4DED-8B62-E5AF06D78564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
